--- a/Code/Results/Cases/Case_1_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011652302115086</v>
+        <v>1.034873433281631</v>
       </c>
       <c r="D2">
-        <v>1.046676192447629</v>
+        <v>1.053126138092693</v>
       </c>
       <c r="E2">
-        <v>1.028907279868142</v>
+        <v>1.045281254983431</v>
       </c>
       <c r="F2">
-        <v>1.045433278061101</v>
+        <v>1.059286841184261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058323517401202</v>
+        <v>1.045630254507131</v>
       </c>
       <c r="J2">
-        <v>1.033489994070882</v>
+        <v>1.039990295279646</v>
       </c>
       <c r="K2">
-        <v>1.057521410833421</v>
+        <v>1.05587296836894</v>
       </c>
       <c r="L2">
-        <v>1.039978060775941</v>
+        <v>1.048049935467291</v>
       </c>
       <c r="M2">
-        <v>1.056293963449799</v>
+        <v>1.062016757899615</v>
       </c>
       <c r="N2">
-        <v>1.015038430187125</v>
+        <v>1.017296294447743</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015281027169203</v>
+        <v>1.035650538168227</v>
       </c>
       <c r="D3">
-        <v>1.049292341760509</v>
+        <v>1.053698481775425</v>
       </c>
       <c r="E3">
-        <v>1.031813906868878</v>
+        <v>1.045950196853032</v>
       </c>
       <c r="F3">
-        <v>1.048498994353908</v>
+        <v>1.059986208680758</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059443498529472</v>
+        <v>1.045814529678178</v>
       </c>
       <c r="J3">
-        <v>1.035363610310357</v>
+        <v>1.040411584607797</v>
       </c>
       <c r="K3">
-        <v>1.059331096399094</v>
+        <v>1.056258911672309</v>
       </c>
       <c r="L3">
-        <v>1.042055283016093</v>
+        <v>1.048530657254337</v>
       </c>
       <c r="M3">
-        <v>1.058546765465173</v>
+        <v>1.062530615879904</v>
       </c>
       <c r="N3">
-        <v>1.015665040188756</v>
+        <v>1.01743658878861</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017588639670813</v>
+        <v>1.036154113877209</v>
       </c>
       <c r="D4">
-        <v>1.050957765905128</v>
+        <v>1.05406924644732</v>
       </c>
       <c r="E4">
-        <v>1.033667638623262</v>
+        <v>1.046384032282273</v>
       </c>
       <c r="F4">
-        <v>1.050452975122407</v>
+        <v>1.060439627131061</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060146259738079</v>
+        <v>1.045932758069468</v>
       </c>
       <c r="J4">
-        <v>1.036552881751323</v>
+        <v>1.040684233004692</v>
       </c>
       <c r="K4">
-        <v>1.060477745402694</v>
+        <v>1.056508358604513</v>
       </c>
       <c r="L4">
-        <v>1.043376020781192</v>
+        <v>1.048842017381493</v>
       </c>
       <c r="M4">
-        <v>1.059978347426</v>
+        <v>1.062863318091853</v>
       </c>
       <c r="N4">
-        <v>1.016062719419234</v>
+        <v>1.017527360793525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018549359797722</v>
+        <v>1.036365991581202</v>
       </c>
       <c r="D5">
-        <v>1.051651494857533</v>
+        <v>1.054225214399474</v>
       </c>
       <c r="E5">
-        <v>1.034440640442753</v>
+        <v>1.046566650516869</v>
       </c>
       <c r="F5">
-        <v>1.051267485910468</v>
+        <v>1.060630452914912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060436529461266</v>
+        <v>1.045982218544155</v>
       </c>
       <c r="J5">
-        <v>1.037047451447126</v>
+        <v>1.040798864042853</v>
       </c>
       <c r="K5">
-        <v>1.060954081209555</v>
+        <v>1.056613156530581</v>
       </c>
       <c r="L5">
-        <v>1.043925795602732</v>
+        <v>1.048972983664475</v>
       </c>
       <c r="M5">
-        <v>1.060574066107369</v>
+        <v>1.063003232627193</v>
       </c>
       <c r="N5">
-        <v>1.016228082203122</v>
+        <v>1.017565518985633</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01871012550828</v>
+        <v>1.03640157695511</v>
       </c>
       <c r="D6">
-        <v>1.05176760289373</v>
+        <v>1.054251407819691</v>
       </c>
       <c r="E6">
-        <v>1.034570065799372</v>
+        <v>1.046597326573232</v>
       </c>
       <c r="F6">
-        <v>1.051403843778514</v>
+        <v>1.06066250557526</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06048496610422</v>
+        <v>1.045990508913341</v>
       </c>
       <c r="J6">
-        <v>1.037130178794066</v>
+        <v>1.040818111624773</v>
       </c>
       <c r="K6">
-        <v>1.061033728087049</v>
+        <v>1.056630748439745</v>
       </c>
       <c r="L6">
-        <v>1.044017788530591</v>
+        <v>1.048994977567246</v>
       </c>
       <c r="M6">
-        <v>1.060673735014327</v>
+        <v>1.063026727570055</v>
       </c>
       <c r="N6">
-        <v>1.016255741681658</v>
+        <v>1.017571925761475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017601513438721</v>
+        <v>1.036156944314315</v>
       </c>
       <c r="D7">
-        <v>1.050967060565222</v>
+        <v>1.054071330114371</v>
       </c>
       <c r="E7">
-        <v>1.033677992073521</v>
+        <v>1.04638647151991</v>
       </c>
       <c r="F7">
-        <v>1.050463885703854</v>
+        <v>1.06044217613741</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060150158548588</v>
+        <v>1.045933419917751</v>
       </c>
       <c r="J7">
-        <v>1.036559511269875</v>
+        <v>1.040685764674027</v>
       </c>
       <c r="K7">
-        <v>1.060484132537678</v>
+        <v>1.056509759194793</v>
       </c>
       <c r="L7">
-        <v>1.04338338819704</v>
+        <v>1.048843767084393</v>
       </c>
       <c r="M7">
-        <v>1.059986331309866</v>
+        <v>1.06286518745614</v>
       </c>
       <c r="N7">
-        <v>1.016064936109201</v>
+        <v>1.017527870675037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012887184260259</v>
+        <v>1.035135905775697</v>
       </c>
       <c r="D8">
-        <v>1.047566094067155</v>
+        <v>1.053319476102978</v>
       </c>
       <c r="E8">
-        <v>1.029895292694979</v>
+        <v>1.045507121765188</v>
       </c>
       <c r="F8">
-        <v>1.046475618761814</v>
+        <v>1.059523011968039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058706613700714</v>
+        <v>1.045692739711148</v>
       </c>
       <c r="J8">
-        <v>1.034128048658396</v>
+        <v>1.040132661627579</v>
       </c>
       <c r="K8">
-        <v>1.058138110393135</v>
+        <v>1.056003457641202</v>
       </c>
       <c r="L8">
-        <v>1.040684985315415</v>
+        <v>1.04821233438082</v>
       </c>
       <c r="M8">
-        <v>1.05706080368089</v>
+        <v>1.062190375774698</v>
       </c>
       <c r="N8">
-        <v>1.015251831841183</v>
+        <v>1.01734370890208</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004257478965632</v>
+        <v>1.033342434749367</v>
       </c>
       <c r="D9">
-        <v>1.041356569364951</v>
+        <v>1.05199792185546</v>
       </c>
       <c r="E9">
-        <v>1.023014621810662</v>
+        <v>1.043965232683184</v>
       </c>
       <c r="F9">
-        <v>1.039211678916931</v>
+        <v>1.0579101723655</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055991013131938</v>
+        <v>1.045260937468649</v>
       </c>
       <c r="J9">
-        <v>1.029660785297672</v>
+        <v>1.039158436407627</v>
       </c>
       <c r="K9">
-        <v>1.053812497977572</v>
+        <v>1.055109180564346</v>
       </c>
       <c r="L9">
-        <v>1.03574502095349</v>
+        <v>1.04710204391964</v>
       </c>
       <c r="M9">
-        <v>1.051699068583943</v>
+        <v>1.061002894719243</v>
       </c>
       <c r="N9">
-        <v>1.013757540774891</v>
+        <v>1.017019154037091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9982686065050331</v>
+        <v>1.032150755245512</v>
       </c>
       <c r="D10">
-        <v>1.037061429142382</v>
+        <v>1.051119234131028</v>
       </c>
       <c r="E10">
-        <v>1.01827137882866</v>
+        <v>1.042942565156282</v>
       </c>
       <c r="F10">
-        <v>1.034198184328039</v>
+        <v>1.056839681305418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054059400483744</v>
+        <v>1.044967954000185</v>
       </c>
       <c r="J10">
-        <v>1.026551087181157</v>
+        <v>1.038509312372551</v>
       </c>
       <c r="K10">
-        <v>1.050792287278824</v>
+        <v>1.054511669165591</v>
       </c>
       <c r="L10">
-        <v>1.032318392470377</v>
+        <v>1.046363540779519</v>
       </c>
       <c r="M10">
-        <v>1.047976263532847</v>
+        <v>1.060212438008811</v>
       </c>
       <c r="N10">
-        <v>1.012717189612893</v>
+        <v>1.016802787530996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956149581104109</v>
+        <v>1.031635710483261</v>
       </c>
       <c r="D11">
-        <v>1.03516239698579</v>
+        <v>1.050739335961364</v>
       </c>
       <c r="E11">
-        <v>1.016177754026765</v>
+        <v>1.042501012286573</v>
       </c>
       <c r="F11">
-        <v>1.031983902292499</v>
+        <v>1.056377298259876</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053192902297221</v>
+        <v>1.044839887701629</v>
       </c>
       <c r="J11">
-        <v>1.025171304660109</v>
+        <v>1.03822833707079</v>
       </c>
       <c r="K11">
-        <v>1.049450330184294</v>
+        <v>1.054252644817782</v>
       </c>
       <c r="L11">
-        <v>1.030800897113878</v>
+        <v>1.046044181644604</v>
       </c>
       <c r="M11">
-        <v>1.04632684522036</v>
+        <v>1.059870467967196</v>
       </c>
       <c r="N11">
-        <v>1.012255566887875</v>
+        <v>1.016709105426819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9946197908415116</v>
+        <v>1.031444546190811</v>
       </c>
       <c r="D12">
-        <v>1.034450912919818</v>
+        <v>1.050598314060281</v>
       </c>
       <c r="E12">
-        <v>1.01539386920465</v>
+        <v>1.042337192673179</v>
       </c>
       <c r="F12">
-        <v>1.031154641222227</v>
+        <v>1.056205723185945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052866403396227</v>
+        <v>1.04479213847387</v>
       </c>
       <c r="J12">
-        <v>1.024653609177413</v>
+        <v>1.038123986713566</v>
       </c>
       <c r="K12">
-        <v>1.048946568809481</v>
+        <v>1.054156388443018</v>
       </c>
       <c r="L12">
-        <v>1.030231972399215</v>
+        <v>1.045925621801379</v>
       </c>
       <c r="M12">
-        <v>1.045708355538637</v>
+        <v>1.059743492404449</v>
       </c>
       <c r="N12">
-        <v>1.012082365252634</v>
+        <v>1.016674309127093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9948336935322083</v>
+        <v>1.031485544929779</v>
       </c>
       <c r="D13">
-        <v>1.034603808118698</v>
+        <v>1.050628559666192</v>
       </c>
       <c r="E13">
-        <v>1.015562300660795</v>
+        <v>1.04237232377819</v>
       </c>
       <c r="F13">
-        <v>1.031332831528783</v>
+        <v>1.056242518684787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052936650635645</v>
+        <v>1.044802388961754</v>
       </c>
       <c r="J13">
-        <v>1.02476489423637</v>
+        <v>1.038146369455661</v>
       </c>
       <c r="K13">
-        <v>1.049054869819317</v>
+        <v>1.054177037691858</v>
       </c>
       <c r="L13">
-        <v>1.03035424983821</v>
+        <v>1.045951050351858</v>
       </c>
       <c r="M13">
-        <v>1.045841290477858</v>
+        <v>1.059770726922322</v>
       </c>
       <c r="N13">
-        <v>1.012119597078406</v>
+        <v>1.016681772979899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955328931694388</v>
+        <v>1.031619905787967</v>
       </c>
       <c r="D14">
-        <v>1.03510371114906</v>
+        <v>1.050727677215119</v>
       </c>
       <c r="E14">
-        <v>1.016113086192488</v>
+        <v>1.042487466961149</v>
       </c>
       <c r="F14">
-        <v>1.031915495115946</v>
+        <v>1.05636311223611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053166009232742</v>
+        <v>1.044835944395868</v>
       </c>
       <c r="J14">
-        <v>1.025128618624923</v>
+        <v>1.038219711095447</v>
       </c>
       <c r="K14">
-        <v>1.049408798174952</v>
+        <v>1.054244689108007</v>
       </c>
       <c r="L14">
-        <v>1.030753978041821</v>
+        <v>1.046034380128719</v>
       </c>
       <c r="M14">
-        <v>1.046275840638158</v>
+        <v>1.059859971151366</v>
       </c>
       <c r="N14">
-        <v>1.012241285727138</v>
+        <v>1.016706229122277</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9959624239027555</v>
+        <v>1.031702709388082</v>
       </c>
       <c r="D15">
-        <v>1.035410903326692</v>
+        <v>1.050788758691412</v>
       </c>
       <c r="E15">
-        <v>1.016451611693324</v>
+        <v>1.042558436085926</v>
       </c>
       <c r="F15">
-        <v>1.032273587314978</v>
+        <v>1.056437437105179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053306705674875</v>
+        <v>1.044856595222811</v>
       </c>
       <c r="J15">
-        <v>1.025352028738437</v>
+        <v>1.038264901512791</v>
       </c>
       <c r="K15">
-        <v>1.04962615797263</v>
+        <v>1.054286365700837</v>
       </c>
       <c r="L15">
-        <v>1.030999561016729</v>
+        <v>1.046085730931055</v>
       </c>
       <c r="M15">
-        <v>1.046542803657108</v>
+        <v>1.059914963793449</v>
       </c>
       <c r="N15">
-        <v>1.01231603044111</v>
+        <v>1.016721297559875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9984434131568711</v>
+        <v>1.032184957472636</v>
       </c>
       <c r="D16">
-        <v>1.037186618026882</v>
+        <v>1.051144459112082</v>
       </c>
       <c r="E16">
-        <v>1.018409467329452</v>
+        <v>1.042971896483611</v>
       </c>
       <c r="F16">
-        <v>1.034344202784823</v>
+        <v>1.05687039250082</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054116262806996</v>
+        <v>1.044976428085071</v>
       </c>
       <c r="J16">
-        <v>1.02664194238614</v>
+        <v>1.038527961998094</v>
       </c>
       <c r="K16">
-        <v>1.050880614592595</v>
+        <v>1.054528853614482</v>
       </c>
       <c r="L16">
-        <v>1.032418376731853</v>
+        <v>1.046384744530136</v>
       </c>
       <c r="M16">
-        <v>1.04808492473445</v>
+        <v>1.060235139972476</v>
       </c>
       <c r="N16">
-        <v>1.012747586142165</v>
+        <v>1.016809005073299</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999832146081307</v>
+        <v>1.032487717463879</v>
       </c>
       <c r="D17">
-        <v>1.0382898358877</v>
+        <v>1.051367737229048</v>
       </c>
       <c r="E17">
-        <v>1.019626762303208</v>
+        <v>1.043231590506462</v>
       </c>
       <c r="F17">
-        <v>1.035631246802791</v>
+        <v>1.057142282601421</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054615935210672</v>
+        <v>1.045051274803829</v>
       </c>
       <c r="J17">
-        <v>1.027442037869212</v>
+        <v>1.038693000571079</v>
       </c>
       <c r="K17">
-        <v>1.051658237251021</v>
+        <v>1.054680881208912</v>
       </c>
       <c r="L17">
-        <v>1.03329919745309</v>
+        <v>1.046572420807986</v>
       </c>
       <c r="M17">
-        <v>1.049042100012638</v>
+        <v>1.06043606042304</v>
       </c>
       <c r="N17">
-        <v>1.013015264634214</v>
+        <v>1.016864023644701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000875552931255</v>
+        <v>1.032664404768817</v>
       </c>
       <c r="D18">
-        <v>1.038929555790163</v>
+        <v>1.051498027338641</v>
       </c>
       <c r="E18">
-        <v>1.020332969847383</v>
+        <v>1.043383187925097</v>
       </c>
       <c r="F18">
-        <v>1.036377787779957</v>
+        <v>1.057300981977565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054904490242958</v>
+        <v>1.045094815537899</v>
       </c>
       <c r="J18">
-        <v>1.0279055236895</v>
+        <v>1.03878927430299</v>
       </c>
       <c r="K18">
-        <v>1.052108524361826</v>
+        <v>1.054769527477958</v>
       </c>
       <c r="L18">
-        <v>1.033809722936866</v>
+        <v>1.046681929389319</v>
       </c>
       <c r="M18">
-        <v>1.049596807817091</v>
+        <v>1.060553283028697</v>
       </c>
       <c r="N18">
-        <v>1.013170325983124</v>
+        <v>1.016896115593959</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001178845108978</v>
+        <v>1.03272466620711</v>
       </c>
       <c r="D19">
-        <v>1.03914705071732</v>
+        <v>1.051542462291835</v>
       </c>
       <c r="E19">
-        <v>1.020573127651032</v>
+        <v>1.043434899404291</v>
       </c>
       <c r="F19">
-        <v>1.036631639244536</v>
+        <v>1.057355113032855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05500239251102</v>
+        <v>1.045109642082731</v>
       </c>
       <c r="J19">
-        <v>1.028063023694157</v>
+        <v>1.038822102730451</v>
       </c>
       <c r="K19">
-        <v>1.052261507897905</v>
+        <v>1.054799748622892</v>
       </c>
       <c r="L19">
-        <v>1.033983254583395</v>
+        <v>1.04671927575214</v>
       </c>
       <c r="M19">
-        <v>1.049785344762235</v>
+        <v>1.06059325778926</v>
       </c>
       <c r="N19">
-        <v>1.013223018012818</v>
+        <v>1.016907058196939</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998186114553848</v>
+        <v>1.032455224597564</v>
       </c>
       <c r="D20">
-        <v>1.038171862310467</v>
+        <v>1.051343775817042</v>
       </c>
       <c r="E20">
-        <v>1.019496554923632</v>
+        <v>1.04320371513118</v>
       </c>
       <c r="F20">
-        <v>1.035493592301832</v>
+        <v>1.057113099922626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054562625433726</v>
+        <v>1.045043256460109</v>
       </c>
       <c r="J20">
-        <v>1.027356527117837</v>
+        <v>1.038675292498823</v>
       </c>
       <c r="K20">
-        <v>1.051575146842028</v>
+        <v>1.054664573060075</v>
       </c>
       <c r="L20">
-        <v>1.033205030438059</v>
+        <v>1.046552280751456</v>
       </c>
       <c r="M20">
-        <v>1.048939777567243</v>
+        <v>1.060414500536439</v>
       </c>
       <c r="N20">
-        <v>1.012986656467294</v>
+        <v>1.016858120612451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.995327261479984</v>
+        <v>1.03158033581051</v>
       </c>
       <c r="D21">
-        <v>1.034956672253264</v>
+        <v>1.050698487088018</v>
       </c>
       <c r="E21">
-        <v>1.015951067291385</v>
+        <v>1.042453554824715</v>
       </c>
       <c r="F21">
-        <v>1.031744104449462</v>
+        <v>1.056327595603292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053098598014259</v>
+        <v>1.044826068109796</v>
       </c>
       <c r="J21">
-        <v>1.02502165546838</v>
+        <v>1.038198113347086</v>
       </c>
       <c r="K21">
-        <v>1.049304722716005</v>
+        <v>1.054224768632045</v>
       </c>
       <c r="L21">
-        <v>1.030636414808183</v>
+        <v>1.046009839796759</v>
       </c>
       <c r="M21">
-        <v>1.046148038831894</v>
+        <v>1.059833689628896</v>
       </c>
       <c r="N21">
-        <v>1.012205499830494</v>
+        <v>1.016699027355102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9924482822018336</v>
+        <v>1.031031105731914</v>
       </c>
       <c r="D22">
-        <v>1.032899757142773</v>
+        <v>1.050293285559191</v>
       </c>
       <c r="E22">
-        <v>1.01368576510844</v>
+        <v>1.041983015703657</v>
       </c>
       <c r="F22">
-        <v>1.029347299789712</v>
+        <v>1.055834729046555</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052151178816284</v>
+        <v>1.044688473948572</v>
       </c>
       <c r="J22">
-        <v>1.023523543701106</v>
+        <v>1.037898187339941</v>
       </c>
       <c r="K22">
-        <v>1.047846473276878</v>
+        <v>1.053947996970582</v>
       </c>
       <c r="L22">
-        <v>1.028990893802209</v>
+        <v>1.045669158799887</v>
       </c>
       <c r="M22">
-        <v>1.044358969156788</v>
+        <v>1.059468785536916</v>
       </c>
       <c r="N22">
-        <v>1.011704288772196</v>
+        <v>1.016599007485599</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9939798467045436</v>
+        <v>1.03132218201753</v>
       </c>
       <c r="D23">
-        <v>1.033993594329977</v>
+        <v>1.050508040826225</v>
       </c>
       <c r="E23">
-        <v>1.014890152668024</v>
+        <v>1.042232350855211</v>
       </c>
       <c r="F23">
-        <v>1.030621710643267</v>
+        <v>1.056095910316201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052656018169574</v>
+        <v>1.044761513401627</v>
       </c>
       <c r="J23">
-        <v>1.024320637358635</v>
+        <v>1.038057174274006</v>
       </c>
       <c r="K23">
-        <v>1.048622489562549</v>
+        <v>1.054094741959972</v>
       </c>
       <c r="L23">
-        <v>1.029866175566795</v>
+        <v>1.0458497243308</v>
       </c>
       <c r="M23">
-        <v>1.045310661641454</v>
+        <v>1.059662201445944</v>
       </c>
       <c r="N23">
-        <v>1.011970965400619</v>
+        <v>1.01665202895005</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9998930064352387</v>
+        <v>1.03246990643959</v>
       </c>
       <c r="D24">
-        <v>1.038225181122973</v>
+        <v>1.051354602775719</v>
       </c>
       <c r="E24">
-        <v>1.019555401821707</v>
+        <v>1.04321631043583</v>
       </c>
       <c r="F24">
-        <v>1.035555805314259</v>
+        <v>1.057126285977968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054586722766355</v>
+        <v>1.045046879963318</v>
       </c>
       <c r="J24">
-        <v>1.027395175610145</v>
+        <v>1.038683293985199</v>
       </c>
       <c r="K24">
-        <v>1.051612701967764</v>
+        <v>1.054671942099925</v>
       </c>
       <c r="L24">
-        <v>1.033247590465242</v>
+        <v>1.046561381052141</v>
       </c>
       <c r="M24">
-        <v>1.048986023775622</v>
+        <v>1.060424242431472</v>
       </c>
       <c r="N24">
-        <v>1.012999586571928</v>
+        <v>1.016860787937007</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006528567179956</v>
+        <v>1.033805399119424</v>
       </c>
       <c r="D25">
-        <v>1.042988531270652</v>
+        <v>1.052339170432223</v>
       </c>
       <c r="E25">
-        <v>1.024820080378495</v>
+        <v>1.044362930144119</v>
       </c>
       <c r="F25">
-        <v>1.041118774218512</v>
+        <v>1.058326305153927</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056713993950631</v>
+        <v>1.045373474482049</v>
       </c>
       <c r="J25">
-        <v>1.0308381989855</v>
+        <v>1.039410239605817</v>
       </c>
       <c r="K25">
-        <v>1.054954243483109</v>
+        <v>1.05534061313832</v>
       </c>
       <c r="L25">
-        <v>1.037044938287151</v>
+        <v>1.047388789523493</v>
       </c>
       <c r="M25">
-        <v>1.053110628423718</v>
+        <v>1.061309683740412</v>
       </c>
       <c r="N25">
-        <v>1.014151419087889</v>
+        <v>1.017103060780794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_115/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034873433281631</v>
+        <v>1.011652302115087</v>
       </c>
       <c r="D2">
-        <v>1.053126138092693</v>
+        <v>1.04667619244763</v>
       </c>
       <c r="E2">
-        <v>1.045281254983431</v>
+        <v>1.028907279868142</v>
       </c>
       <c r="F2">
-        <v>1.059286841184261</v>
+        <v>1.045433278061102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045630254507131</v>
+        <v>1.058323517401202</v>
       </c>
       <c r="J2">
-        <v>1.039990295279646</v>
+        <v>1.033489994070883</v>
       </c>
       <c r="K2">
-        <v>1.05587296836894</v>
+        <v>1.057521410833422</v>
       </c>
       <c r="L2">
-        <v>1.048049935467291</v>
+        <v>1.039978060775941</v>
       </c>
       <c r="M2">
-        <v>1.062016757899615</v>
+        <v>1.056293963449799</v>
       </c>
       <c r="N2">
-        <v>1.017296294447743</v>
+        <v>1.015038430187125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035650538168227</v>
+        <v>1.015281027169203</v>
       </c>
       <c r="D3">
-        <v>1.053698481775425</v>
+        <v>1.049292341760509</v>
       </c>
       <c r="E3">
-        <v>1.045950196853032</v>
+        <v>1.031813906868879</v>
       </c>
       <c r="F3">
-        <v>1.059986208680758</v>
+        <v>1.048498994353909</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045814529678178</v>
+        <v>1.059443498529471</v>
       </c>
       <c r="J3">
-        <v>1.040411584607797</v>
+        <v>1.035363610310357</v>
       </c>
       <c r="K3">
-        <v>1.056258911672309</v>
+        <v>1.059331096399094</v>
       </c>
       <c r="L3">
-        <v>1.048530657254337</v>
+        <v>1.042055283016093</v>
       </c>
       <c r="M3">
-        <v>1.062530615879904</v>
+        <v>1.058546765465173</v>
       </c>
       <c r="N3">
-        <v>1.01743658878861</v>
+        <v>1.015665040188756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036154113877209</v>
+        <v>1.017588639670812</v>
       </c>
       <c r="D4">
-        <v>1.05406924644732</v>
+        <v>1.050957765905127</v>
       </c>
       <c r="E4">
-        <v>1.046384032282273</v>
+        <v>1.033667638623261</v>
       </c>
       <c r="F4">
-        <v>1.060439627131061</v>
+        <v>1.050452975122405</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045932758069468</v>
+        <v>1.060146259738078</v>
       </c>
       <c r="J4">
-        <v>1.040684233004692</v>
+        <v>1.036552881751322</v>
       </c>
       <c r="K4">
-        <v>1.056508358604513</v>
+        <v>1.060477745402692</v>
       </c>
       <c r="L4">
-        <v>1.048842017381493</v>
+        <v>1.043376020781191</v>
       </c>
       <c r="M4">
-        <v>1.062863318091853</v>
+        <v>1.059978347425999</v>
       </c>
       <c r="N4">
-        <v>1.017527360793525</v>
+        <v>1.016062719419233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036365991581202</v>
+        <v>1.018549359797722</v>
       </c>
       <c r="D5">
-        <v>1.054225214399474</v>
+        <v>1.051651494857533</v>
       </c>
       <c r="E5">
-        <v>1.046566650516869</v>
+        <v>1.034440640442753</v>
       </c>
       <c r="F5">
-        <v>1.060630452914912</v>
+        <v>1.051267485910468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045982218544155</v>
+        <v>1.060436529461266</v>
       </c>
       <c r="J5">
-        <v>1.040798864042853</v>
+        <v>1.037047451447126</v>
       </c>
       <c r="K5">
-        <v>1.056613156530581</v>
+        <v>1.060954081209555</v>
       </c>
       <c r="L5">
-        <v>1.048972983664475</v>
+        <v>1.043925795602732</v>
       </c>
       <c r="M5">
-        <v>1.063003232627193</v>
+        <v>1.060574066107369</v>
       </c>
       <c r="N5">
-        <v>1.017565518985633</v>
+        <v>1.016228082203122</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03640157695511</v>
+        <v>1.01871012550828</v>
       </c>
       <c r="D6">
-        <v>1.054251407819691</v>
+        <v>1.05176760289373</v>
       </c>
       <c r="E6">
-        <v>1.046597326573232</v>
+        <v>1.034570065799371</v>
       </c>
       <c r="F6">
-        <v>1.06066250557526</v>
+        <v>1.051403843778514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045990508913341</v>
+        <v>1.06048496610422</v>
       </c>
       <c r="J6">
-        <v>1.040818111624773</v>
+        <v>1.037130178794066</v>
       </c>
       <c r="K6">
-        <v>1.056630748439745</v>
+        <v>1.061033728087049</v>
       </c>
       <c r="L6">
-        <v>1.048994977567246</v>
+        <v>1.044017788530591</v>
       </c>
       <c r="M6">
-        <v>1.063026727570055</v>
+        <v>1.060673735014327</v>
       </c>
       <c r="N6">
-        <v>1.017571925761475</v>
+        <v>1.016255741681658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036156944314315</v>
+        <v>1.017601513438721</v>
       </c>
       <c r="D7">
-        <v>1.054071330114371</v>
+        <v>1.050967060565222</v>
       </c>
       <c r="E7">
-        <v>1.04638647151991</v>
+        <v>1.03367799207352</v>
       </c>
       <c r="F7">
-        <v>1.06044217613741</v>
+        <v>1.050463885703854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045933419917751</v>
+        <v>1.060150158548588</v>
       </c>
       <c r="J7">
-        <v>1.040685764674027</v>
+        <v>1.036559511269875</v>
       </c>
       <c r="K7">
-        <v>1.056509759194793</v>
+        <v>1.060484132537678</v>
       </c>
       <c r="L7">
-        <v>1.048843767084393</v>
+        <v>1.04338338819704</v>
       </c>
       <c r="M7">
-        <v>1.06286518745614</v>
+        <v>1.059986331309865</v>
       </c>
       <c r="N7">
-        <v>1.017527870675037</v>
+        <v>1.016064936109201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035135905775697</v>
+        <v>1.012887184260259</v>
       </c>
       <c r="D8">
-        <v>1.053319476102978</v>
+        <v>1.047566094067155</v>
       </c>
       <c r="E8">
-        <v>1.045507121765188</v>
+        <v>1.029895292694979</v>
       </c>
       <c r="F8">
-        <v>1.059523011968039</v>
+        <v>1.046475618761815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045692739711148</v>
+        <v>1.058706613700714</v>
       </c>
       <c r="J8">
-        <v>1.040132661627579</v>
+        <v>1.034128048658396</v>
       </c>
       <c r="K8">
-        <v>1.056003457641202</v>
+        <v>1.058138110393135</v>
       </c>
       <c r="L8">
-        <v>1.04821233438082</v>
+        <v>1.040684985315415</v>
       </c>
       <c r="M8">
-        <v>1.062190375774698</v>
+        <v>1.05706080368089</v>
       </c>
       <c r="N8">
-        <v>1.01734370890208</v>
+        <v>1.015251831841184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033342434749367</v>
+        <v>1.004257478965632</v>
       </c>
       <c r="D9">
-        <v>1.05199792185546</v>
+        <v>1.041356569364951</v>
       </c>
       <c r="E9">
-        <v>1.043965232683184</v>
+        <v>1.023014621810662</v>
       </c>
       <c r="F9">
-        <v>1.0579101723655</v>
+        <v>1.039211678916931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045260937468649</v>
+        <v>1.055991013131937</v>
       </c>
       <c r="J9">
-        <v>1.039158436407627</v>
+        <v>1.029660785297671</v>
       </c>
       <c r="K9">
-        <v>1.055109180564346</v>
+        <v>1.053812497977572</v>
       </c>
       <c r="L9">
-        <v>1.04710204391964</v>
+        <v>1.03574502095349</v>
       </c>
       <c r="M9">
-        <v>1.061002894719243</v>
+        <v>1.051699068583943</v>
       </c>
       <c r="N9">
-        <v>1.017019154037091</v>
+        <v>1.01375754077489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032150755245512</v>
+        <v>0.9982686065050332</v>
       </c>
       <c r="D10">
-        <v>1.051119234131028</v>
+        <v>1.037061429142383</v>
       </c>
       <c r="E10">
-        <v>1.042942565156282</v>
+        <v>1.01827137882866</v>
       </c>
       <c r="F10">
-        <v>1.056839681305418</v>
+        <v>1.034198184328039</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044967954000185</v>
+        <v>1.054059400483744</v>
       </c>
       <c r="J10">
-        <v>1.038509312372551</v>
+        <v>1.026551087181157</v>
       </c>
       <c r="K10">
-        <v>1.054511669165591</v>
+        <v>1.050792287278824</v>
       </c>
       <c r="L10">
-        <v>1.046363540779519</v>
+        <v>1.032318392470378</v>
       </c>
       <c r="M10">
-        <v>1.060212438008811</v>
+        <v>1.047976263532848</v>
       </c>
       <c r="N10">
-        <v>1.016802787530996</v>
+        <v>1.012717189612893</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031635710483261</v>
+        <v>0.9956149581104107</v>
       </c>
       <c r="D11">
-        <v>1.050739335961364</v>
+        <v>1.03516239698579</v>
       </c>
       <c r="E11">
-        <v>1.042501012286573</v>
+        <v>1.016177754026764</v>
       </c>
       <c r="F11">
-        <v>1.056377298259876</v>
+        <v>1.0319839022925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044839887701629</v>
+        <v>1.053192902297221</v>
       </c>
       <c r="J11">
-        <v>1.03822833707079</v>
+        <v>1.025171304660109</v>
       </c>
       <c r="K11">
-        <v>1.054252644817782</v>
+        <v>1.049450330184294</v>
       </c>
       <c r="L11">
-        <v>1.046044181644604</v>
+        <v>1.030800897113878</v>
       </c>
       <c r="M11">
-        <v>1.059870467967196</v>
+        <v>1.04632684522036</v>
       </c>
       <c r="N11">
-        <v>1.016709105426819</v>
+        <v>1.012255566887875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031444546190811</v>
+        <v>0.9946197908415112</v>
       </c>
       <c r="D12">
-        <v>1.050598314060281</v>
+        <v>1.034450912919818</v>
       </c>
       <c r="E12">
-        <v>1.042337192673179</v>
+        <v>1.01539386920465</v>
       </c>
       <c r="F12">
-        <v>1.056205723185945</v>
+        <v>1.031154641222227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04479213847387</v>
+        <v>1.052866403396227</v>
       </c>
       <c r="J12">
-        <v>1.038123986713566</v>
+        <v>1.024653609177412</v>
       </c>
       <c r="K12">
-        <v>1.054156388443018</v>
+        <v>1.048946568809481</v>
       </c>
       <c r="L12">
-        <v>1.045925621801379</v>
+        <v>1.030231972399215</v>
       </c>
       <c r="M12">
-        <v>1.059743492404449</v>
+        <v>1.045708355538637</v>
       </c>
       <c r="N12">
-        <v>1.016674309127093</v>
+        <v>1.012082365252634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031485544929779</v>
+        <v>0.9948336935322084</v>
       </c>
       <c r="D13">
-        <v>1.050628559666192</v>
+        <v>1.034603808118697</v>
       </c>
       <c r="E13">
-        <v>1.04237232377819</v>
+        <v>1.015562300660796</v>
       </c>
       <c r="F13">
-        <v>1.056242518684787</v>
+        <v>1.031332831528783</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044802388961754</v>
+        <v>1.052936650635645</v>
       </c>
       <c r="J13">
-        <v>1.038146369455661</v>
+        <v>1.02476489423637</v>
       </c>
       <c r="K13">
-        <v>1.054177037691858</v>
+        <v>1.049054869819317</v>
       </c>
       <c r="L13">
-        <v>1.045951050351858</v>
+        <v>1.03035424983821</v>
       </c>
       <c r="M13">
-        <v>1.059770726922322</v>
+        <v>1.045841290477858</v>
       </c>
       <c r="N13">
-        <v>1.016681772979899</v>
+        <v>1.012119597078407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031619905787967</v>
+        <v>0.9955328931694393</v>
       </c>
       <c r="D14">
-        <v>1.050727677215119</v>
+        <v>1.03510371114906</v>
       </c>
       <c r="E14">
-        <v>1.042487466961149</v>
+        <v>1.016113086192488</v>
       </c>
       <c r="F14">
-        <v>1.05636311223611</v>
+        <v>1.031915495115946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044835944395868</v>
+        <v>1.053166009232742</v>
       </c>
       <c r="J14">
-        <v>1.038219711095447</v>
+        <v>1.025128618624924</v>
       </c>
       <c r="K14">
-        <v>1.054244689108007</v>
+        <v>1.049408798174952</v>
       </c>
       <c r="L14">
-        <v>1.046034380128719</v>
+        <v>1.030753978041822</v>
       </c>
       <c r="M14">
-        <v>1.059859971151366</v>
+        <v>1.046275840638158</v>
       </c>
       <c r="N14">
-        <v>1.016706229122277</v>
+        <v>1.012241285727138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031702709388082</v>
+        <v>0.9959624239027557</v>
       </c>
       <c r="D15">
-        <v>1.050788758691412</v>
+        <v>1.035410903326693</v>
       </c>
       <c r="E15">
-        <v>1.042558436085926</v>
+        <v>1.016451611693324</v>
       </c>
       <c r="F15">
-        <v>1.056437437105179</v>
+        <v>1.032273587314979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044856595222811</v>
+        <v>1.053306705674875</v>
       </c>
       <c r="J15">
-        <v>1.038264901512791</v>
+        <v>1.025352028738437</v>
       </c>
       <c r="K15">
-        <v>1.054286365700837</v>
+        <v>1.04962615797263</v>
       </c>
       <c r="L15">
-        <v>1.046085730931055</v>
+        <v>1.030999561016729</v>
       </c>
       <c r="M15">
-        <v>1.059914963793449</v>
+        <v>1.046542803657109</v>
       </c>
       <c r="N15">
-        <v>1.016721297559875</v>
+        <v>1.01231603044111</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032184957472636</v>
+        <v>0.9984434131568711</v>
       </c>
       <c r="D16">
-        <v>1.051144459112082</v>
+        <v>1.037186618026882</v>
       </c>
       <c r="E16">
-        <v>1.042971896483611</v>
+        <v>1.018409467329453</v>
       </c>
       <c r="F16">
-        <v>1.05687039250082</v>
+        <v>1.034344202784823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044976428085071</v>
+        <v>1.054116262806996</v>
       </c>
       <c r="J16">
-        <v>1.038527961998094</v>
+        <v>1.02664194238614</v>
       </c>
       <c r="K16">
-        <v>1.054528853614482</v>
+        <v>1.050880614592595</v>
       </c>
       <c r="L16">
-        <v>1.046384744530136</v>
+        <v>1.032418376731853</v>
       </c>
       <c r="M16">
-        <v>1.060235139972476</v>
+        <v>1.04808492473445</v>
       </c>
       <c r="N16">
-        <v>1.016809005073299</v>
+        <v>1.012747586142165</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032487717463879</v>
+        <v>0.9999832146081303</v>
       </c>
       <c r="D17">
-        <v>1.051367737229048</v>
+        <v>1.0382898358877</v>
       </c>
       <c r="E17">
-        <v>1.043231590506462</v>
+        <v>1.019626762303207</v>
       </c>
       <c r="F17">
-        <v>1.057142282601421</v>
+        <v>1.035631246802791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045051274803829</v>
+        <v>1.054615935210672</v>
       </c>
       <c r="J17">
-        <v>1.038693000571079</v>
+        <v>1.027442037869211</v>
       </c>
       <c r="K17">
-        <v>1.054680881208912</v>
+        <v>1.051658237251021</v>
       </c>
       <c r="L17">
-        <v>1.046572420807986</v>
+        <v>1.033299197453089</v>
       </c>
       <c r="M17">
-        <v>1.06043606042304</v>
+        <v>1.049042100012638</v>
       </c>
       <c r="N17">
-        <v>1.016864023644701</v>
+        <v>1.013015264634213</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032664404768817</v>
+        <v>1.000875552931254</v>
       </c>
       <c r="D18">
-        <v>1.051498027338641</v>
+        <v>1.038929555790163</v>
       </c>
       <c r="E18">
-        <v>1.043383187925097</v>
+        <v>1.020332969847383</v>
       </c>
       <c r="F18">
-        <v>1.057300981977565</v>
+        <v>1.036377787779957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045094815537899</v>
+        <v>1.054904490242958</v>
       </c>
       <c r="J18">
-        <v>1.03878927430299</v>
+        <v>1.0279055236895</v>
       </c>
       <c r="K18">
-        <v>1.054769527477958</v>
+        <v>1.052108524361826</v>
       </c>
       <c r="L18">
-        <v>1.046681929389319</v>
+        <v>1.033809722936866</v>
       </c>
       <c r="M18">
-        <v>1.060553283028697</v>
+        <v>1.049596807817091</v>
       </c>
       <c r="N18">
-        <v>1.016896115593959</v>
+        <v>1.013170325983124</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03272466620711</v>
+        <v>1.001178845108979</v>
       </c>
       <c r="D19">
-        <v>1.051542462291835</v>
+        <v>1.039147050717321</v>
       </c>
       <c r="E19">
-        <v>1.043434899404291</v>
+        <v>1.020573127651033</v>
       </c>
       <c r="F19">
-        <v>1.057355113032855</v>
+        <v>1.036631639244536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045109642082731</v>
+        <v>1.05500239251102</v>
       </c>
       <c r="J19">
-        <v>1.038822102730451</v>
+        <v>1.028063023694158</v>
       </c>
       <c r="K19">
-        <v>1.054799748622892</v>
+        <v>1.052261507897905</v>
       </c>
       <c r="L19">
-        <v>1.04671927575214</v>
+        <v>1.033983254583396</v>
       </c>
       <c r="M19">
-        <v>1.06059325778926</v>
+        <v>1.049785344762235</v>
       </c>
       <c r="N19">
-        <v>1.016907058196939</v>
+        <v>1.013223018012818</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032455224597564</v>
+        <v>0.9998186114553848</v>
       </c>
       <c r="D20">
-        <v>1.051343775817042</v>
+        <v>1.038171862310467</v>
       </c>
       <c r="E20">
-        <v>1.04320371513118</v>
+        <v>1.019496554923632</v>
       </c>
       <c r="F20">
-        <v>1.057113099922626</v>
+        <v>1.035493592301831</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045043256460109</v>
+        <v>1.054562625433726</v>
       </c>
       <c r="J20">
-        <v>1.038675292498823</v>
+        <v>1.027356527117836</v>
       </c>
       <c r="K20">
-        <v>1.054664573060075</v>
+        <v>1.051575146842028</v>
       </c>
       <c r="L20">
-        <v>1.046552280751456</v>
+        <v>1.033205030438059</v>
       </c>
       <c r="M20">
-        <v>1.060414500536439</v>
+        <v>1.048939777567243</v>
       </c>
       <c r="N20">
-        <v>1.016858120612451</v>
+        <v>1.012986656467294</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03158033581051</v>
+        <v>0.9953272614799846</v>
       </c>
       <c r="D21">
-        <v>1.050698487088018</v>
+        <v>1.034956672253264</v>
       </c>
       <c r="E21">
-        <v>1.042453554824715</v>
+        <v>1.015951067291386</v>
       </c>
       <c r="F21">
-        <v>1.056327595603292</v>
+        <v>1.031744104449463</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044826068109796</v>
+        <v>1.053098598014259</v>
       </c>
       <c r="J21">
-        <v>1.038198113347086</v>
+        <v>1.02502165546838</v>
       </c>
       <c r="K21">
-        <v>1.054224768632045</v>
+        <v>1.049304722716005</v>
       </c>
       <c r="L21">
-        <v>1.046009839796759</v>
+        <v>1.030636414808183</v>
       </c>
       <c r="M21">
-        <v>1.059833689628896</v>
+        <v>1.046148038831896</v>
       </c>
       <c r="N21">
-        <v>1.016699027355102</v>
+        <v>1.012205499830494</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031031105731914</v>
+        <v>0.9924482822018338</v>
       </c>
       <c r="D22">
-        <v>1.050293285559191</v>
+        <v>1.032899757142773</v>
       </c>
       <c r="E22">
-        <v>1.041983015703657</v>
+        <v>1.01368576510844</v>
       </c>
       <c r="F22">
-        <v>1.055834729046555</v>
+        <v>1.029347299789712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044688473948572</v>
+        <v>1.052151178816284</v>
       </c>
       <c r="J22">
-        <v>1.037898187339941</v>
+        <v>1.023523543701106</v>
       </c>
       <c r="K22">
-        <v>1.053947996970582</v>
+        <v>1.047846473276878</v>
       </c>
       <c r="L22">
-        <v>1.045669158799887</v>
+        <v>1.028990893802209</v>
       </c>
       <c r="M22">
-        <v>1.059468785536916</v>
+        <v>1.044358969156788</v>
       </c>
       <c r="N22">
-        <v>1.016599007485599</v>
+        <v>1.011704288772196</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03132218201753</v>
+        <v>0.9939798467045435</v>
       </c>
       <c r="D23">
-        <v>1.050508040826225</v>
+        <v>1.033993594329976</v>
       </c>
       <c r="E23">
-        <v>1.042232350855211</v>
+        <v>1.014890152668023</v>
       </c>
       <c r="F23">
-        <v>1.056095910316201</v>
+        <v>1.030621710643266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044761513401627</v>
+        <v>1.052656018169574</v>
       </c>
       <c r="J23">
-        <v>1.038057174274006</v>
+        <v>1.024320637358635</v>
       </c>
       <c r="K23">
-        <v>1.054094741959972</v>
+        <v>1.048622489562549</v>
       </c>
       <c r="L23">
-        <v>1.0458497243308</v>
+        <v>1.029866175566794</v>
       </c>
       <c r="M23">
-        <v>1.059662201445944</v>
+        <v>1.045310661641453</v>
       </c>
       <c r="N23">
-        <v>1.01665202895005</v>
+        <v>1.011970965400618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03246990643959</v>
+        <v>0.9998930064352383</v>
       </c>
       <c r="D24">
-        <v>1.051354602775719</v>
+        <v>1.038225181122972</v>
       </c>
       <c r="E24">
-        <v>1.04321631043583</v>
+        <v>1.019555401821706</v>
       </c>
       <c r="F24">
-        <v>1.057126285977968</v>
+        <v>1.035555805314259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045046879963318</v>
+        <v>1.054586722766355</v>
       </c>
       <c r="J24">
-        <v>1.038683293985199</v>
+        <v>1.027395175610145</v>
       </c>
       <c r="K24">
-        <v>1.054671942099925</v>
+        <v>1.051612701967764</v>
       </c>
       <c r="L24">
-        <v>1.046561381052141</v>
+        <v>1.033247590465241</v>
       </c>
       <c r="M24">
-        <v>1.060424242431472</v>
+        <v>1.048986023775621</v>
       </c>
       <c r="N24">
-        <v>1.016860787937007</v>
+        <v>1.012999586571927</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033805399119424</v>
+        <v>1.006528567179957</v>
       </c>
       <c r="D25">
-        <v>1.052339170432223</v>
+        <v>1.042988531270652</v>
       </c>
       <c r="E25">
-        <v>1.044362930144119</v>
+        <v>1.024820080378495</v>
       </c>
       <c r="F25">
-        <v>1.058326305153927</v>
+        <v>1.041118774218512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045373474482049</v>
+        <v>1.056713993950631</v>
       </c>
       <c r="J25">
-        <v>1.039410239605817</v>
+        <v>1.0308381989855</v>
       </c>
       <c r="K25">
-        <v>1.05534061313832</v>
+        <v>1.054954243483109</v>
       </c>
       <c r="L25">
-        <v>1.047388789523493</v>
+        <v>1.03704493828715</v>
       </c>
       <c r="M25">
-        <v>1.061309683740412</v>
+        <v>1.053110628423717</v>
       </c>
       <c r="N25">
-        <v>1.017103060780794</v>
+        <v>1.014151419087889</v>
       </c>
     </row>
   </sheetData>
